--- a/data/s_vals/2024/weaver_luke.xlsx
+++ b/data/s_vals/2024/weaver_luke.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.32444174274583</v>
+        <v>1.459612070389937</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2000879064671799</v>
+        <v>0.04240448674262143</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4920287655081723</v>
+        <v>0.8054896365839992</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8325562821609895</v>
+        <v>8.660232485948974</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.849114696882172</v>
+        <v>10.96773867966553</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.604297436535426</v>
+        <v>3.230985683306322</v>
       </c>
       <c r="C3" t="n">
-        <v>1.30730885917215</v>
+        <v>1.667794583268128</v>
       </c>
       <c r="D3" t="n">
-        <v>0.218472785105742</v>
+        <v>0.1575252929769615</v>
       </c>
       <c r="E3" t="n">
-        <v>0.345811306910992</v>
+        <v>0.496779210170732</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5.475890387724311</v>
+        <v>5.553084769722144</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.604297436535426</v>
+        <v>3.230985683306322</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5259639568199952</v>
+        <v>0.3127903958511391</v>
       </c>
       <c r="D4" t="n">
-        <v>0.218472785105742</v>
+        <v>0.1575252929769615</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8325562821609895</v>
+        <v>8.660232485948974</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>5.181290460622154</v>
+        <v>12.3615338580834</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1767123311908738</v>
+        <v>0.003994804209775715</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5259639568199952</v>
+        <v>0.3127903958511391</v>
       </c>
       <c r="D5" t="n">
-        <v>1.06073455665548</v>
+        <v>3.900430680208489</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8325562821609895</v>
+        <v>8.660232485948974</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.595967126827339</v>
+        <v>12.87744836621838</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +572,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6629759848332026</v>
+        <v>0.127881588408715</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5259639568199952</v>
+        <v>0.3127903958511391</v>
       </c>
       <c r="D6" t="n">
-        <v>0.218472785105742</v>
+        <v>0.1575252929769615</v>
       </c>
       <c r="E6" t="n">
-        <v>0.345811306910992</v>
+        <v>0.496779210170732</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>1.753224033669932</v>
+        <v>1.094976487407548</v>
       </c>
     </row>
     <row r="7">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.604297436535426</v>
+        <v>3.230985683306322</v>
       </c>
       <c r="C7" t="n">
-        <v>1.30730885917215</v>
+        <v>1.667794583268128</v>
       </c>
       <c r="D7" t="n">
-        <v>5.22600755797499</v>
+        <v>337.1190423067083</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8325562821609895</v>
+        <v>8.660232485948974</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>10.97017013584356</v>
+        <v>350.6780550592317</v>
       </c>
     </row>
     <row r="8">
@@ -622,22 +622,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.604297436535426</v>
+        <v>3.230985683306322</v>
       </c>
       <c r="C8" t="n">
-        <v>1.30730885917215</v>
+        <v>1.667794583268128</v>
       </c>
       <c r="D8" t="n">
-        <v>1.06073455665548</v>
+        <v>3.900430680208489</v>
       </c>
       <c r="E8" t="n">
-        <v>0.345811306910992</v>
+        <v>0.496779210170732</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>6.318152159274049</v>
+        <v>9.295990156953671</v>
       </c>
     </row>
     <row r="9">
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.52218429426656</v>
+        <v>0.6753301551942219</v>
       </c>
       <c r="C9" t="n">
-        <v>1.30730885917215</v>
+        <v>1.667794583268128</v>
       </c>
       <c r="D9" t="n">
-        <v>0.218472785105742</v>
+        <v>0.1575252929769615</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8325562821609895</v>
+        <v>8.660232485948974</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>3.880522220705442</v>
+        <v>11.16088251738829</v>
       </c>
     </row>
     <row r="10">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.604297436535426</v>
+        <v>3.230985683306322</v>
       </c>
       <c r="C10" t="n">
-        <v>1.30730885917215</v>
+        <v>1.667794583268128</v>
       </c>
       <c r="D10" t="n">
-        <v>0.218472785105742</v>
+        <v>0.1575252929769615</v>
       </c>
       <c r="E10" t="n">
-        <v>0.345811306910992</v>
+        <v>0.496779210170732</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>5.475890387724311</v>
+        <v>5.553084769722144</v>
       </c>
     </row>
     <row r="11">
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.604297436535426</v>
+        <v>3.230985683306322</v>
       </c>
       <c r="C11" t="n">
-        <v>1.30730885917215</v>
+        <v>1.667794583268128</v>
       </c>
       <c r="D11" t="n">
-        <v>2.295182259495947</v>
+        <v>26.21740644021617</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8325562821609895</v>
+        <v>8.660232485948974</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>8.039344837364514</v>
+        <v>39.7764191927396</v>
       </c>
     </row>
     <row r="12">
@@ -722,22 +722,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.604297436535426</v>
+        <v>3.230985683306322</v>
       </c>
       <c r="C12" t="n">
-        <v>3.326709122536596</v>
+        <v>10.29869402782916</v>
       </c>
       <c r="D12" t="n">
-        <v>2.295182259495947</v>
+        <v>26.21740644021617</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8325562821609895</v>
+        <v>8.660232485948974</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>10.05874510072896</v>
+        <v>48.40731863730063</v>
       </c>
     </row>
     <row r="13">
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.604297436535426</v>
+        <v>3.230985683306322</v>
       </c>
       <c r="C13" t="n">
-        <v>1.30730885917215</v>
+        <v>1.667794583268128</v>
       </c>
       <c r="D13" t="n">
-        <v>5.22600755797499</v>
+        <v>337.1190423067083</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8325562821609895</v>
+        <v>8.660232485948974</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>10.97017013584356</v>
+        <v>350.6780550592317</v>
       </c>
     </row>
     <row r="14">
@@ -772,22 +772,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.32444174274583</v>
+        <v>1.459612070389937</v>
       </c>
       <c r="C14" t="n">
-        <v>1.30730885917215</v>
+        <v>1.667794583268128</v>
       </c>
       <c r="D14" t="n">
-        <v>13.11236895667077</v>
+        <v>9844.520545567508</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8325562821609895</v>
+        <v>8.660232485948974</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>17.57667584074974</v>
+        <v>9856.308184707115</v>
       </c>
     </row>
     <row r="15">
@@ -797,22 +797,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.604297436535426</v>
+        <v>3.230985683306322</v>
       </c>
       <c r="C15" t="n">
-        <v>1.30730885917215</v>
+        <v>1.667794583268128</v>
       </c>
       <c r="D15" t="n">
-        <v>1.06073455665548</v>
+        <v>3.900430680208489</v>
       </c>
       <c r="E15" t="n">
-        <v>0.345811306910992</v>
+        <v>0.496779210170732</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>6.318152159274049</v>
+        <v>9.295990156953671</v>
       </c>
     </row>
     <row r="16">
@@ -822,22 +822,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.604297436535426</v>
+        <v>3.230985683306322</v>
       </c>
       <c r="C16" t="n">
-        <v>1.30730885917215</v>
+        <v>1.667794583268128</v>
       </c>
       <c r="D16" t="n">
-        <v>0.218472785105742</v>
+        <v>0.1575252929769615</v>
       </c>
       <c r="E16" t="n">
-        <v>0.345811306910992</v>
+        <v>0.496779210170732</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>5.475890387724311</v>
+        <v>5.553084769722144</v>
       </c>
     </row>
     <row r="17">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6629759848332026</v>
+        <v>0.127881588408715</v>
       </c>
       <c r="C17" t="n">
-        <v>1.30730885917215</v>
+        <v>1.667794583268128</v>
       </c>
       <c r="D17" t="n">
-        <v>1.06073455665548</v>
+        <v>3.900430680208489</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8325562821609895</v>
+        <v>8.660232485948974</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.863575682821823</v>
+        <v>14.35633933783431</v>
       </c>
     </row>
     <row r="18">
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.604297436535426</v>
+        <v>3.230985683306322</v>
       </c>
       <c r="C18" t="n">
-        <v>1.30730885917215</v>
+        <v>1.667794583268128</v>
       </c>
       <c r="D18" t="n">
-        <v>1.06073455665548</v>
+        <v>3.900430680208489</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8325562821609895</v>
+        <v>8.660232485948974</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>6.804897134524046</v>
+        <v>17.45944343273191</v>
       </c>
     </row>
     <row r="19">
@@ -897,22 +897,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.604297436535426</v>
+        <v>3.230985683306322</v>
       </c>
       <c r="C19" t="n">
-        <v>1.30730885917215</v>
+        <v>1.667794583268128</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4920287655081723</v>
+        <v>0.8054896365839992</v>
       </c>
       <c r="E19" t="n">
-        <v>0.345811306910992</v>
+        <v>0.496779210170732</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>5.74944636812674</v>
+        <v>6.201049113329182</v>
       </c>
     </row>
     <row r="20">
@@ -922,22 +922,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.32444174274583</v>
+        <v>1.459612070389937</v>
       </c>
       <c r="C20" t="n">
-        <v>1.30730885917215</v>
+        <v>1.667794583268128</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4920287655081723</v>
+        <v>0.8054896365839992</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8325562821609895</v>
+        <v>8.660232485948974</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>4.956335649587142</v>
+        <v>12.59312877619104</v>
       </c>
     </row>
     <row r="21">
@@ -947,22 +947,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.6629759848332026</v>
+        <v>0.127881588408715</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5259639568199952</v>
+        <v>0.3127903958511391</v>
       </c>
       <c r="D21" t="n">
-        <v>2.295182259495947</v>
+        <v>26.21740644021617</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8325562821609895</v>
+        <v>8.660232485948974</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>4.316678483310135</v>
+        <v>35.318310910425</v>
       </c>
     </row>
     <row r="22">
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.604297436535426</v>
+        <v>3.230985683306322</v>
       </c>
       <c r="C22" t="n">
-        <v>1.30730885917215</v>
+        <v>1.667794583268128</v>
       </c>
       <c r="D22" t="n">
-        <v>13.11236895667077</v>
+        <v>9844.520545567508</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8325562821609895</v>
+        <v>8.660232485948974</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>18.85653153453933</v>
+        <v>9858.079558320031</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2024/weaver_luke.xlsx
+++ b/data/s_vals/2024/weaver_luke.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>sum</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Save</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>10.96773867966553</v>
       </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>5.553084769722144</v>
       </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -539,6 +550,9 @@
       <c r="G4" t="n">
         <v>12.3615338580834</v>
       </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -564,6 +578,9 @@
       <c r="G5" t="n">
         <v>12.87744836621838</v>
       </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -589,6 +606,9 @@
       <c r="G6" t="n">
         <v>1.094976487407548</v>
       </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -614,6 +634,9 @@
       <c r="G7" t="n">
         <v>350.6780550592317</v>
       </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -639,6 +662,9 @@
       <c r="G8" t="n">
         <v>9.295990156953671</v>
       </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -664,6 +690,9 @@
       <c r="G9" t="n">
         <v>11.16088251738829</v>
       </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -689,6 +718,9 @@
       <c r="G10" t="n">
         <v>5.553084769722144</v>
       </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -714,6 +746,9 @@
       <c r="G11" t="n">
         <v>39.7764191927396</v>
       </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -739,6 +774,9 @@
       <c r="G12" t="n">
         <v>48.40731863730063</v>
       </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -764,6 +802,9 @@
       <c r="G13" t="n">
         <v>350.6780550592317</v>
       </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -789,6 +830,9 @@
       <c r="G14" t="n">
         <v>9856.308184707115</v>
       </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -814,6 +858,9 @@
       <c r="G15" t="n">
         <v>9.295990156953671</v>
       </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -839,6 +886,9 @@
       <c r="G16" t="n">
         <v>5.553084769722144</v>
       </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -864,6 +914,9 @@
       <c r="G17" t="n">
         <v>14.35633933783431</v>
       </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -889,6 +942,9 @@
       <c r="G18" t="n">
         <v>17.45944343273191</v>
       </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -914,6 +970,9 @@
       <c r="G19" t="n">
         <v>6.201049113329182</v>
       </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -939,6 +998,9 @@
       <c r="G20" t="n">
         <v>12.59312877619104</v>
       </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -964,6 +1026,9 @@
       <c r="G21" t="n">
         <v>35.318310910425</v>
       </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -988,6 +1053,9 @@
       </c>
       <c r="G22" t="n">
         <v>9858.079558320031</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2024/weaver_luke.xlsx
+++ b/data/s_vals/2024/weaver_luke.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,11 +464,6 @@
           <t>sum</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Save</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -494,9 +489,6 @@
       <c r="G2" t="n">
         <v>10.96773867966553</v>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -522,9 +514,6 @@
       <c r="G3" t="n">
         <v>5.553084769722144</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -550,9 +539,6 @@
       <c r="G4" t="n">
         <v>12.3615338580834</v>
       </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -578,9 +564,6 @@
       <c r="G5" t="n">
         <v>12.87744836621838</v>
       </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -606,9 +589,6 @@
       <c r="G6" t="n">
         <v>1.094976487407548</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -634,9 +614,6 @@
       <c r="G7" t="n">
         <v>350.6780550592317</v>
       </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -662,9 +639,6 @@
       <c r="G8" t="n">
         <v>9.295990156953671</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -690,9 +664,6 @@
       <c r="G9" t="n">
         <v>11.16088251738829</v>
       </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -718,9 +689,6 @@
       <c r="G10" t="n">
         <v>5.553084769722144</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -746,9 +714,6 @@
       <c r="G11" t="n">
         <v>39.7764191927396</v>
       </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -774,9 +739,6 @@
       <c r="G12" t="n">
         <v>48.40731863730063</v>
       </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -802,9 +764,6 @@
       <c r="G13" t="n">
         <v>350.6780550592317</v>
       </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -830,9 +789,6 @@
       <c r="G14" t="n">
         <v>9856.308184707115</v>
       </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -858,9 +814,6 @@
       <c r="G15" t="n">
         <v>9.295990156953671</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -886,9 +839,6 @@
       <c r="G16" t="n">
         <v>5.553084769722144</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -914,9 +864,6 @@
       <c r="G17" t="n">
         <v>14.35633933783431</v>
       </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -942,9 +889,6 @@
       <c r="G18" t="n">
         <v>17.45944343273191</v>
       </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -970,9 +914,6 @@
       <c r="G19" t="n">
         <v>6.201049113329182</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -998,9 +939,6 @@
       <c r="G20" t="n">
         <v>12.59312877619104</v>
       </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1026,9 +964,6 @@
       <c r="G21" t="n">
         <v>35.318310910425</v>
       </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1053,9 +988,6 @@
       </c>
       <c r="G22" t="n">
         <v>9858.079558320031</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2024/weaver_luke.xlsx
+++ b/data/s_vals/2024/weaver_luke.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>sum</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Save</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>10.96773867966553</v>
       </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>5.553084769722144</v>
       </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -539,6 +550,9 @@
       <c r="G4" t="n">
         <v>12.3615338580834</v>
       </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -564,6 +578,9 @@
       <c r="G5" t="n">
         <v>12.87744836621838</v>
       </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -589,6 +606,9 @@
       <c r="G6" t="n">
         <v>1.094976487407548</v>
       </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -614,6 +634,9 @@
       <c r="G7" t="n">
         <v>350.6780550592317</v>
       </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -639,6 +662,9 @@
       <c r="G8" t="n">
         <v>9.295990156953671</v>
       </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -664,6 +690,9 @@
       <c r="G9" t="n">
         <v>11.16088251738829</v>
       </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -689,6 +718,9 @@
       <c r="G10" t="n">
         <v>5.553084769722144</v>
       </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -714,6 +746,9 @@
       <c r="G11" t="n">
         <v>39.7764191927396</v>
       </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -739,6 +774,9 @@
       <c r="G12" t="n">
         <v>48.40731863730063</v>
       </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -764,6 +802,9 @@
       <c r="G13" t="n">
         <v>350.6780550592317</v>
       </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -789,6 +830,9 @@
       <c r="G14" t="n">
         <v>9856.308184707115</v>
       </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -814,6 +858,9 @@
       <c r="G15" t="n">
         <v>9.295990156953671</v>
       </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -839,6 +886,9 @@
       <c r="G16" t="n">
         <v>5.553084769722144</v>
       </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -864,6 +914,9 @@
       <c r="G17" t="n">
         <v>14.35633933783431</v>
       </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -889,6 +942,9 @@
       <c r="G18" t="n">
         <v>17.45944343273191</v>
       </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -914,6 +970,9 @@
       <c r="G19" t="n">
         <v>6.201049113329182</v>
       </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -939,6 +998,9 @@
       <c r="G20" t="n">
         <v>12.59312877619104</v>
       </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -964,6 +1026,9 @@
       <c r="G21" t="n">
         <v>35.318310910425</v>
       </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -988,6 +1053,9 @@
       </c>
       <c r="G22" t="n">
         <v>9858.079558320031</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2024/weaver_luke.xlsx
+++ b/data/s_vals/2024/weaver_luke.xlsx
@@ -477,25 +477,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.459612070389937</v>
+        <v>1.505614041169197</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04240448674262143</v>
+        <v>0.05231270169004087</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8054896365839992</v>
+        <v>0.7127328510149897</v>
       </c>
       <c r="E2" t="n">
-        <v>8.660232485948974</v>
+        <v>6.48142807727062</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>10.96773867966553</v>
+        <v>8.752087671144849</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -505,22 +505,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.230985683306322</v>
+        <v>3.182878228561681</v>
       </c>
       <c r="C3" t="n">
-        <v>1.667794583268128</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1575252929769615</v>
+        <v>0.1529057820181812</v>
       </c>
       <c r="E3" t="n">
-        <v>0.496779210170732</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5.553084769722144</v>
+        <v>5.488907176552729</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.230985683306322</v>
+        <v>3.182878228561681</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3127903958511391</v>
+        <v>0.3375848360084654</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1575252929769615</v>
+        <v>0.1529057820181812</v>
       </c>
       <c r="E4" t="n">
-        <v>8.660232485948974</v>
+        <v>6.48142807727062</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>12.3615338580834</v>
+        <v>10.15479692385895</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -561,25 +561,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.003994804209775715</v>
+        <v>0.006876353814593728</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3127903958511391</v>
+        <v>0.3375848360084654</v>
       </c>
       <c r="D5" t="n">
-        <v>3.900430680208489</v>
+        <v>3.082599426703578</v>
       </c>
       <c r="E5" t="n">
-        <v>8.660232485948974</v>
+        <v>6.48142807727062</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>12.87744836621838</v>
+        <v>9.908488693797258</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -589,22 +589,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.127881588408715</v>
+        <v>0.1554434735375247</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3127903958511391</v>
+        <v>0.3375848360084654</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1575252929769615</v>
+        <v>0.1529057820181812</v>
       </c>
       <c r="E6" t="n">
-        <v>0.496779210170732</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>1.094976487407548</v>
+        <v>1.145820798638228</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -617,22 +617,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.230985683306322</v>
+        <v>3.182878228561681</v>
       </c>
       <c r="C7" t="n">
-        <v>1.667794583268128</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D7" t="n">
-        <v>337.1190423067083</v>
+        <v>157.8057217802531</v>
       </c>
       <c r="E7" t="n">
-        <v>8.660232485948974</v>
+        <v>6.48142807727062</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>350.6780550592317</v>
+        <v>169.1232645449842</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -645,25 +645,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.230985683306322</v>
+        <v>3.182878228561681</v>
       </c>
       <c r="C8" t="n">
-        <v>1.667794583268128</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D8" t="n">
-        <v>3.900430680208489</v>
+        <v>3.082599426703578</v>
       </c>
       <c r="E8" t="n">
-        <v>0.496779210170732</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>9.295990156953671</v>
+        <v>8.418600821238126</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -673,25 +673,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6753301551942219</v>
+        <v>0.7287194209349384</v>
       </c>
       <c r="C9" t="n">
-        <v>1.667794583268128</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1575252929769615</v>
+        <v>0.1529057820181812</v>
       </c>
       <c r="E9" t="n">
-        <v>8.660232485948974</v>
+        <v>6.48142807727062</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>11.16088251738829</v>
+        <v>9.016289739122548</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -701,22 +701,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.230985683306322</v>
+        <v>3.182878228561681</v>
       </c>
       <c r="C10" t="n">
-        <v>1.667794583268128</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1575252929769615</v>
+        <v>0.1529057820181812</v>
       </c>
       <c r="E10" t="n">
-        <v>0.496779210170732</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>5.553084769722144</v>
+        <v>5.488907176552729</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -729,22 +729,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.230985683306322</v>
+        <v>3.182878228561681</v>
       </c>
       <c r="C11" t="n">
-        <v>1.667794583268128</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D11" t="n">
-        <v>26.21740644021617</v>
+        <v>16.98373111632243</v>
       </c>
       <c r="E11" t="n">
-        <v>8.660232485948974</v>
+        <v>6.48142807727062</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>39.7764191927396</v>
+        <v>28.30127388105354</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -757,22 +757,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.230985683306322</v>
+        <v>3.182878228561681</v>
       </c>
       <c r="C12" t="n">
-        <v>10.29869402782916</v>
+        <v>9.226618575922256</v>
       </c>
       <c r="D12" t="n">
-        <v>26.21740644021617</v>
+        <v>16.98373111632243</v>
       </c>
       <c r="E12" t="n">
-        <v>8.660232485948974</v>
+        <v>6.48142807727062</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>48.40731863730063</v>
+        <v>35.87465599807698</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -785,22 +785,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.230985683306322</v>
+        <v>3.182878228561681</v>
       </c>
       <c r="C13" t="n">
-        <v>1.667794583268128</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D13" t="n">
-        <v>337.1190423067083</v>
+        <v>157.8057217802531</v>
       </c>
       <c r="E13" t="n">
-        <v>8.660232485948974</v>
+        <v>6.48142807727062</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>350.6780550592317</v>
+        <v>169.1232645449842</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -813,22 +813,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.459612070389937</v>
+        <v>1.505614041169197</v>
       </c>
       <c r="C14" t="n">
-        <v>1.667794583268128</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D14" t="n">
-        <v>9844.520545567508</v>
+        <v>2938.103010863317</v>
       </c>
       <c r="E14" t="n">
-        <v>8.660232485948974</v>
+        <v>6.48142807727062</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>9856.308184707115</v>
+        <v>2947.743289440656</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -841,25 +841,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.230985683306322</v>
+        <v>3.182878228561681</v>
       </c>
       <c r="C15" t="n">
-        <v>1.667794583268128</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D15" t="n">
-        <v>3.900430680208489</v>
+        <v>3.082599426703578</v>
       </c>
       <c r="E15" t="n">
-        <v>0.496779210170732</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>9.295990156953671</v>
+        <v>8.418600821238126</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -869,22 +869,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.230985683306322</v>
+        <v>3.182878228561681</v>
       </c>
       <c r="C16" t="n">
-        <v>1.667794583268128</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1575252929769615</v>
+        <v>0.1529057820181812</v>
       </c>
       <c r="E16" t="n">
-        <v>0.496779210170732</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>5.553084769722144</v>
+        <v>5.488907176552729</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -897,22 +897,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.127881588408715</v>
+        <v>0.1554434735375247</v>
       </c>
       <c r="C17" t="n">
-        <v>1.667794583268128</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D17" t="n">
-        <v>3.900430680208489</v>
+        <v>3.082599426703578</v>
       </c>
       <c r="E17" t="n">
-        <v>8.660232485948974</v>
+        <v>6.48142807727062</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>14.35633933783431</v>
+        <v>11.37270743641053</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -925,22 +925,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.230985683306322</v>
+        <v>3.182878228561681</v>
       </c>
       <c r="C18" t="n">
-        <v>1.667794583268128</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D18" t="n">
-        <v>3.900430680208489</v>
+        <v>3.082599426703578</v>
       </c>
       <c r="E18" t="n">
-        <v>8.660232485948974</v>
+        <v>6.48142807727062</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>17.45944343273191</v>
+        <v>14.40014219143469</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -953,22 +953,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.230985683306322</v>
+        <v>3.182878228561681</v>
       </c>
       <c r="C19" t="n">
-        <v>1.667794583268128</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8054896365839992</v>
+        <v>0.7127328510149897</v>
       </c>
       <c r="E19" t="n">
-        <v>0.496779210170732</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>6.201049113329182</v>
+        <v>6.048734245549538</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.459612070389937</v>
+        <v>1.505614041169197</v>
       </c>
       <c r="C20" t="n">
-        <v>1.667794583268128</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8054896365839992</v>
+        <v>0.7127328510149897</v>
       </c>
       <c r="E20" t="n">
-        <v>8.660232485948974</v>
+        <v>6.48142807727062</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>12.59312877619104</v>
+        <v>10.35301142835362</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -1009,22 +1009,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.127881588408715</v>
+        <v>0.1554434735375247</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3127903958511391</v>
+        <v>0.3375848360084654</v>
       </c>
       <c r="D21" t="n">
-        <v>26.21740644021617</v>
+        <v>16.98373111632243</v>
       </c>
       <c r="E21" t="n">
-        <v>8.660232485948974</v>
+        <v>6.48142807727062</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>35.318310910425</v>
+        <v>23.95818750313904</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -1037,22 +1037,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.230985683306322</v>
+        <v>3.182878228561681</v>
       </c>
       <c r="C22" t="n">
-        <v>1.667794583268128</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D22" t="n">
-        <v>9844.520545567508</v>
+        <v>2938.103010863317</v>
       </c>
       <c r="E22" t="n">
-        <v>8.660232485948974</v>
+        <v>6.48142807727062</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>9858.079558320031</v>
+        <v>2949.420553628048</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
